--- a/j6/officer-injuries.xlsx
+++ b/j6/officer-injuries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t xml:space="preserve">Sargent Aquilino Gonell</t>
   </si>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Officer Michel DaCruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Egtvedt also landed partly on top of Officer Michel DaCruz,  injuring Officer DaCruz’s right shoulder rotator cuff. Trial Tr. 12/7/22 at 646 (DaCruz test.). At  trial, Officer DaCruz recalled that his arm was in “complete and utter pain.”  ...  Additionally, Officer DaCruz had to seek medical treatment for his shoulder injury and undergo physical therapy.</t>
+    <t xml:space="preserve">Egtvedt also landed partly on top of Officer Michel DaCruz,  injuring Officer DaCruz’s right shoulder rotator cuff. Trial Tr. 12/7/22 at 646 (DaCruz test.). At trial, Officer DaCruz recalled that his arm was in “complete and utter pain.”  ...  Additionally, Officer DaCruz had to seek medical treatment for his shoulder injury and undergo physical therapy.</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Egtvedt Sentencing Memo</t>
@@ -94,22 +94,14 @@
     <t xml:space="preserve">Thomas Webster Sentencing Memo</t>
   </si>
   <si>
-    <t xml:space="preserve">Officer Wayte</t>
+    <t xml:space="preserve">Officer Andrew Wayte</t>
   </si>
   <si>
     <t xml:space="preserve">At trial, Officer Wayte identified the injuries he suffered during this attack, which included a laceration to his head that required staples to close, contusions to his elbow, a concussion and “goose eggs” on his head, bruising and scrapes on his body, and extreme pain from being sprayed in the face by chemical irritant. ... Officer Wayte was unable to return to work until May 2021. At that time, he returned to limited duty; he did not return to full duty until approximately July 2021.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ronald McAbee Sentencing Memo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Officer A.W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the hospital, Officer A.W. was treated for a laceration on his head, which required two staples to close. He also sustained bruising on multiple areas of his body,  including contusions on his elbow. Due to his injuries, Officer A.W. was off duty until May 2021, when he returned to limited duty. Officer A.W. returned to full duty after six months, in July 2021.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clayton Mullins Sentencing Memo</t>
+    <t xml:space="preserve">Ronald McAbee Sentencing Memo
+Clayton Mullins Sentencing Memo</t>
   </si>
   <si>
     <t xml:space="preserve">Officer A.Z.</t>
@@ -265,7 +257,7 @@
     <t xml:space="preserve">Sargent A.W.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sergeant A.W. was sprayed by Rodriguez in the face, mouth, and nose with bear spray. Sergeant A.W. was wearing his helmet but the visor  did not completely cover his face and mouth, so Sergeant A.W. was greatly affected by the attack.  ... Sergeant A.W. rinsed his eyes out with water in a bathroom where  other officers were decontaminating. </t>
+    <t xml:space="preserve">Sergeant A.W. was sprayed by Rodriguez in the face, mouth, and nose with bear spray. Sergeant A.W. was wearing his helmet but the visor did not completely cover his face and mouth, so Sergeant A.W. was greatly affected by the attack.  ... Sergeant A.W. rinsed his eyes out with water in a bathroom where  other officers were decontaminating. </t>
   </si>
   <si>
     <t xml:space="preserve">Sargent F.R.</t>
@@ -419,10 +411,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,7 +491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
@@ -528,11 +520,11 @@
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -543,7 +535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>29</v>
       </c>
@@ -554,7 +546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="56.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>32</v>
       </c>
@@ -565,7 +557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="56.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>35</v>
       </c>
@@ -573,21 +565,21 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>40</v>
       </c>
@@ -598,7 +590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>43</v>
       </c>
@@ -609,7 +601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>46</v>
       </c>
@@ -620,7 +612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="267.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>49</v>
       </c>
@@ -628,18 +620,18 @@
         <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="267.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>57</v>
       </c>
@@ -661,21 +653,21 @@
         <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="233.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>62</v>
       </c>
@@ -683,21 +675,21 @@
         <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="233.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="156.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>67</v>
       </c>
@@ -708,7 +700,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="156.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>70</v>
       </c>
@@ -716,21 +708,21 @@
         <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="77.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="77.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>75</v>
       </c>
@@ -738,21 +730,21 @@
         <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="68.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="57.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="68.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>80</v>
       </c>
@@ -763,7 +755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>83</v>
       </c>
@@ -774,7 +766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="178.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>86</v>
       </c>
@@ -782,29 +774,18 @@
         <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="178.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="46.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -816,32 +797,30 @@
     <hyperlink ref="C6" r:id="rId5" display="Bingert/Sturgeon Sentencing Memo"/>
     <hyperlink ref="C7" r:id="rId6" display="Daniel Egtvedt Sentencing Memo"/>
     <hyperlink ref="C8" r:id="rId7" display="Thomas Webster Sentencing Memo"/>
-    <hyperlink ref="C9" r:id="rId8" display="Ronald McAbee Sentencing Memo"/>
-    <hyperlink ref="C10" r:id="rId9" display="Clayton Mullins Sentencing Memo"/>
-    <hyperlink ref="C11" r:id="rId10" display="Edward Rodriguez Sentencing Memo"/>
-    <hyperlink ref="C12" r:id="rId11" display="Gregory Nix Sentencing Memo"/>
-    <hyperlink ref="C13" r:id="rId12" display="Jack Whitton Sentencing Memo"/>
-    <hyperlink ref="C14" r:id="rId13" display="Edward Rodriguez Sentencing Memo"/>
-    <hyperlink ref="C15" r:id="rId14" display="Daniel Leyden Sentencing Memo"/>
-    <hyperlink ref="C16" r:id="rId15" display="Geoffrey Sills Sentencing Memo"/>
-    <hyperlink ref="C17" r:id="rId16" display="Rodney Milstreed Sentencing Memo"/>
-    <hyperlink ref="C18" r:id="rId17" display="Ryan Nichols Sentencing Memo"/>
-    <hyperlink ref="C19" r:id="rId18" display="Edward Rodriguez Sentencing Memo"/>
-    <hyperlink ref="C20" r:id="rId19" display="James Elliot Sentencing Memo"/>
-    <hyperlink ref="C21" r:id="rId20" display="Daniel Gray Sentencing Memo"/>
-    <hyperlink ref="C22" r:id="rId21" display="Daniel Leyden Sentencing Memo"/>
-    <hyperlink ref="C23" r:id="rId22" display="Robert Gieswein Sentencing Memo"/>
-    <hyperlink ref="C24" r:id="rId23" display="Edward Rodriguez Sentencing Memo"/>
-    <hyperlink ref="C25" r:id="rId24" display="Landon Copeland Sentencing Memo"/>
-    <hyperlink ref="C26" r:id="rId25" display="Donald Hazard Sentencing Memo"/>
-    <hyperlink ref="C27" r:id="rId26" display="Geoffrey Sills Sentencing Memo"/>
-    <hyperlink ref="C28" r:id="rId27" display="Robert Sanford Sentencing Memo"/>
-    <hyperlink ref="C29" r:id="rId28" display="Edward Rodriguez Sentencing Memo"/>
-    <hyperlink ref="C30" r:id="rId29" display="Kenneth Bonawitz Sentencing Memo"/>
-    <hyperlink ref="C31" r:id="rId30" display="Lucas Denney Sentencing Memo"/>
-    <hyperlink ref="C32" r:id="rId31" display="Audrey Southard-Rumsey Sentencing Memo"/>
-    <hyperlink ref="C33" r:id="rId32" display="Edward Rodriguez Sentencing Memo"/>
-    <hyperlink ref="C34" r:id="rId33" display="Robert Sanford Sentencing Memo"/>
+    <hyperlink ref="C10" r:id="rId8" display="Edward Rodriguez Sentencing Memo"/>
+    <hyperlink ref="C11" r:id="rId9" display="Gregory Nix Sentencing Memo"/>
+    <hyperlink ref="C12" r:id="rId10" display="Jack Whitton Sentencing Memo"/>
+    <hyperlink ref="C13" r:id="rId11" display="Edward Rodriguez Sentencing Memo"/>
+    <hyperlink ref="C14" r:id="rId12" display="Daniel Leyden Sentencing Memo"/>
+    <hyperlink ref="C15" r:id="rId13" display="Geoffrey Sills Sentencing Memo"/>
+    <hyperlink ref="C16" r:id="rId14" display="Rodney Milstreed Sentencing Memo"/>
+    <hyperlink ref="C17" r:id="rId15" display="Ryan Nichols Sentencing Memo"/>
+    <hyperlink ref="C18" r:id="rId16" display="Edward Rodriguez Sentencing Memo"/>
+    <hyperlink ref="C19" r:id="rId17" display="James Elliot Sentencing Memo"/>
+    <hyperlink ref="C20" r:id="rId18" display="Daniel Gray Sentencing Memo"/>
+    <hyperlink ref="C21" r:id="rId19" display="Daniel Leyden Sentencing Memo"/>
+    <hyperlink ref="C22" r:id="rId20" display="Robert Gieswein Sentencing Memo"/>
+    <hyperlink ref="C23" r:id="rId21" display="Edward Rodriguez Sentencing Memo"/>
+    <hyperlink ref="C24" r:id="rId22" display="Landon Copeland Sentencing Memo"/>
+    <hyperlink ref="C25" r:id="rId23" display="Donald Hazard Sentencing Memo"/>
+    <hyperlink ref="C26" r:id="rId24" display="Geoffrey Sills Sentencing Memo"/>
+    <hyperlink ref="C27" r:id="rId25" display="Robert Sanford Sentencing Memo"/>
+    <hyperlink ref="C28" r:id="rId26" display="Edward Rodriguez Sentencing Memo"/>
+    <hyperlink ref="C29" r:id="rId27" display="Kenneth Bonawitz Sentencing Memo"/>
+    <hyperlink ref="C30" r:id="rId28" display="Lucas Denney Sentencing Memo"/>
+    <hyperlink ref="C31" r:id="rId29" display="Audrey Southard-Rumsey Sentencing Memo"/>
+    <hyperlink ref="C32" r:id="rId30" display="Edward Rodriguez Sentencing Memo"/>
+    <hyperlink ref="C33" r:id="rId31" display="Robert Sanford Sentencing Memo"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/j6/officer-injuries.xlsx
+++ b/j6/officer-injuries.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Officer Michel DaCruz</t>
   </si>
   <si>
-    <t xml:space="preserve">Egtvedt also landed partly on top of Officer Michel DaCruz,  injuring Officer DaCruz’s right shoulder rotator cuff. Trial Tr. 12/7/22 at 646 (DaCruz test.). At trial, Officer DaCruz recalled that his arm was in “complete and utter pain.”  ...  Additionally, Officer DaCruz had to seek medical treatment for his shoulder injury and undergo physical therapy.</t>
+    <t xml:space="preserve">Egtvedt also landed partly on top of Officer Michel DaCruz, injuring Officer DaCruz’s right shoulder rotator cuff. Trial Tr. 12/7/22 at 646 (DaCruz test.). At trial, Officer DaCruz recalled that his arm was in “complete and utter pain.”  ...  Additionally, Officer DaCruz had to seek medical treatment for his shoulder injury and undergo physical therapy.</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Egtvedt Sentencing Memo</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">Officer A.Z.</t>
   </si>
   <si>
-    <t xml:space="preserve">As result of Rodriguez’s bear spray attack, Officer A.Z.’s vision became blurry and he removed his gloves and face covering because his eyes, face, and neck were burning.  ... As the day progressed, the effects of multiple spray attacks intensified and Officer A.Z. felt like his entire body was burning.  Officer A.Z. returned home from duty approximately 12 to 16 hours after being initially sprayed by Rodriguez. When he showered, the chemical irritants reactivated and “felt like hell.” Officer  A.Z. remarked that his hands were burning for two to three days after January 6.</t>
+    <t xml:space="preserve">As result of Rodriguez’s bear spray attack, Officer A.Z.’s vision became blurry and he removed his gloves and face covering because his eyes, face, and neck were burning. … As the day progressed, the effects of multiple spray attacks intensified and Officer A.Z. felt like his entire body was burning.  Officer A.Z. returned home from duty approximately 12 to 16 hours after being initially sprayed by Rodriguez. When he showered, the chemical irritants reactivated and “felt like hell.” Officer  A.Z. remarked that his hands were burning for two to three days after January 6.</t>
   </si>
   <si>
     <t xml:space="preserve">Edward Rodriguez Sentencing Memo</t>
@@ -413,8 +413,8 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,7 +524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>

--- a/j6/officer-injuries.xlsx
+++ b/j6/officer-injuries.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Sargent Aquilino Gonell</t>
   </si>
   <si>
-    <t xml:space="preserve">Sgt. Gonell suffered a torn labrum; despite sugery, he has not regained full use of his shoulder. He also continues to experience painful biceps tendinitis. The injuries inflicted by Fitzsimons forced Sgt. Gonell to medically retire from the USCP...</t>
+    <t xml:space="preserve">Sgt. Gonell suffered a torn labrum; despite surgery, he has not regained full use of his shoulder. He also continues to experience painful biceps tendinitis. The injuries inflicted by Fitzsimons forced Sgt. Gonell to medically retire from the USCP...</t>
   </si>
   <si>
     <t xml:space="preserve">Kyle Fitzsimons Sentencing Memo</t>
@@ -413,8 +413,8 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +425,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
